--- a/docs/sinais.xlsx
+++ b/docs/sinais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\CpuDidatica\CpuDidatica32i\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9BB6AD-275A-418F-A13B-0FBD03A31FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD17F1A-1547-4757-BEF0-B065D77974E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18A684C2-09AA-4094-803A-4CBD9ADAA45C}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="3" xr2:uid="{18A684C2-09AA-4094-803A-4CBD9ADAA45C}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruções" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ricardo Kerschbaumer</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{517F72EF-98B0-4404-B0D3-238960A82486}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ricardo Kerschbaumer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Utiliza o clock também.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="109">
   <si>
     <t>ROM</t>
   </si>
@@ -138,12 +172,6 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t>RamAMux</t>
-  </si>
-  <si>
-    <t>RAM address Mux control</t>
-  </si>
-  <si>
     <t>RamE</t>
   </si>
   <si>
@@ -165,33 +193,18 @@
     <t>Enable B register</t>
   </si>
   <si>
-    <t>CSET</t>
-  </si>
-  <si>
-    <t>Set Carry Register</t>
-  </si>
-  <si>
     <t>CE</t>
   </si>
   <si>
     <t>Enable Carry Register</t>
   </si>
   <si>
-    <t>CCLR</t>
-  </si>
-  <si>
-    <t>Clear Carry Register</t>
-  </si>
-  <si>
     <t>OUT addr,A</t>
   </si>
   <si>
     <t>IN A,addr</t>
   </si>
   <si>
-    <t>v2.0 raw</t>
-  </si>
-  <si>
     <t>SET C</t>
   </si>
   <si>
@@ -261,12 +274,6 @@
     <t>JIN A, addr</t>
   </si>
   <si>
-    <t>BusMux0</t>
-  </si>
-  <si>
-    <t>BusMux1</t>
-  </si>
-  <si>
     <t>Data bus multiplexer bit 0</t>
   </si>
   <si>
@@ -336,9 +343,6 @@
     <t>A Shift Right-&gt;A</t>
   </si>
   <si>
-    <t>BusMux2</t>
-  </si>
-  <si>
     <t>JMP</t>
   </si>
   <si>
@@ -354,9 +358,6 @@
     <t>Jump enable</t>
   </si>
   <si>
-    <t>Data bus multiplexer bit 2</t>
-  </si>
-  <si>
     <t>JIC addr</t>
   </si>
   <si>
@@ -373,13 +374,37 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>OP3</t>
+  </si>
+  <si>
+    <t>ALU and jump opperation select bit 3</t>
+  </si>
+  <si>
+    <t>Program Counter address select</t>
+  </si>
+  <si>
+    <t>A - C=0</t>
+  </si>
+  <si>
+    <t>B - C=1</t>
+  </si>
+  <si>
+    <t>BMux0</t>
+  </si>
+  <si>
+    <t>BMux1</t>
+  </si>
+  <si>
+    <t>PcASel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,8 +433,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,12 +457,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -502,7 +534,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,12 +875,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B5E688-C301-4E02-8353-6E2341398D12}">
-  <dimension ref="A1:U34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B5E688-C301-4E02-8353-6E2341398D12}">
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X6" sqref="X6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,23 +890,17 @@
     <col min="3" max="3" width="12.44140625" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.5546875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="3.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="3.21875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,15 +916,15 @@
       </c>
       <c r="F1" s="3" t="str">
         <f>Sinais!$A$2</f>
-        <v>BusMux0</v>
+        <v>BMux0</v>
       </c>
       <c r="G1" s="3" t="str">
         <f>Sinais!$A$3</f>
-        <v>BusMux1</v>
+        <v>BMux1</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>Sinais!$A$4</f>
-        <v>BusMux2</v>
+        <v>PcASel</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>Sinais!$A$5</f>
@@ -907,23 +932,23 @@
       </c>
       <c r="J1" s="3" t="str">
         <f>Sinais!$A$6</f>
-        <v>RamAMux</v>
+        <v>RamE</v>
       </c>
       <c r="K1" s="3" t="str">
         <f>Sinais!$A$7</f>
-        <v>RamE</v>
+        <v>OP0</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>Sinais!$A$8</f>
-        <v>OP0</v>
+        <v>OP1</v>
       </c>
       <c r="M1" s="3" t="str">
         <f>Sinais!$A$9</f>
-        <v>OP1</v>
+        <v>OP2</v>
       </c>
       <c r="N1" s="3" t="str">
         <f>Sinais!$A$10</f>
-        <v>OP2</v>
+        <v>OP3</v>
       </c>
       <c r="O1" s="3" t="str">
         <f>Sinais!$A$11</f>
@@ -943,18 +968,10 @@
       </c>
       <c r="S1" s="3" t="str">
         <f>Sinais!$A$15</f>
-        <v>CSET</v>
-      </c>
-      <c r="T1" s="3" t="str">
-        <f>Sinais!$A$16</f>
         <v>CE</v>
       </c>
-      <c r="U1" s="3" t="str">
-        <f>Sinais!$A$17</f>
-        <v>CCLR</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:19" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="15"/>
@@ -1002,14 +1019,8 @@
       <c r="S2" s="6">
         <v>13</v>
       </c>
-      <c r="T2" s="6">
-        <v>14</v>
-      </c>
-      <c r="U2" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1038,20 +1049,20 @@
       <c r="I3" s="3">
         <v>0</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="O3" s="3">
         <v>0</v>
@@ -1065,17 +1076,11 @@
       <c r="R3" s="3">
         <v>0</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T3" s="3">
-        <v>0</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1104,20 +1109,20 @@
       <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="O4" s="3">
         <v>0</v>
@@ -1131,17 +1136,11 @@
       <c r="R4" s="3">
         <v>0</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1149,7 +1148,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1170,20 +1169,20 @@
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="O5" s="3">
         <v>0</v>
@@ -1197,17 +1196,11 @@
       <c r="R5" s="3">
         <v>1</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1215,17 +1208,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>107</v>
+      <c r="C6" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -1236,20 +1229,20 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="O6" s="3">
         <v>0</v>
@@ -1263,17 +1256,11 @@
       <c r="R6" s="3">
         <v>0</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1281,11 +1268,11 @@
         <f>DEC2HEX(A7)</f>
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1297,25 +1284,25 @@
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>111</v>
+      <c r="J7" s="3">
+        <v>0</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>111</v>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
       </c>
       <c r="O7" s="3">
         <v>0</v>
@@ -1329,17 +1316,11 @@
       <c r="R7" s="3">
         <v>1</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1351,37 +1332,37 @@
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>111</v>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>111</v>
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -1395,17 +1376,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1414,10 +1389,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1429,25 +1404,25 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>111</v>
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -1461,17 +1436,11 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1479,11 +1448,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -1495,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -1504,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>111</v>
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -1527,17 +1496,11 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1549,19 +1512,19 @@
         <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -1572,14 +1535,14 @@
       <c r="K11" s="3">
         <v>1</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>111</v>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
       </c>
       <c r="O11" s="3">
         <v>0</v>
@@ -1593,17 +1556,11 @@
       <c r="R11" s="3">
         <v>0</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1612,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1635,17 +1592,17 @@
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
@@ -1659,17 +1616,11 @@
       <c r="R12" s="3">
         <v>0</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1677,11 +1628,11 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -1699,19 +1650,19 @@
         <v>1</v>
       </c>
       <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="O13" s="3">
         <v>0</v>
@@ -1725,17 +1676,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-      <c r="S13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1747,7 +1692,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -1765,19 +1710,19 @@
         <v>1</v>
       </c>
       <c r="J14" s="3">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1791,17 +1736,11 @@
       <c r="R14" s="3">
         <v>1</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1809,11 +1748,11 @@
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>49</v>
+      <c r="C15" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -1831,19 +1770,19 @@
         <v>1</v>
       </c>
       <c r="J15" s="3">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1857,17 +1796,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1875,11 +1808,11 @@
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>48</v>
+      <c r="C16" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -1891,25 +1824,25 @@
         <v>0</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
       </c>
       <c r="J16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>111</v>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
       </c>
       <c r="O16" s="3">
         <v>0</v>
@@ -1923,17 +1856,11 @@
       <c r="R16" s="3">
         <v>0</v>
       </c>
-      <c r="S16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T16" s="3">
-        <v>0</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1942,40 +1869,40 @@
         <v>E</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
       </c>
       <c r="F17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>111</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="3">
         <v>1</v>
@@ -1989,17 +1916,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2007,11 +1928,11 @@
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>68</v>
+      <c r="C18" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
@@ -2028,20 +1949,20 @@
       <c r="I18" s="3">
         <v>1</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>111</v>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
+      <c r="N18" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="O18" s="3">
         <v>1</v>
@@ -2055,17 +1976,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2074,10 +1989,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
@@ -2094,20 +2009,20 @@
       <c r="I19" s="3">
         <v>1</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>111</v>
+      <c r="J19" s="3">
+        <v>0</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
       </c>
       <c r="L19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="3">
-        <v>1</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="O19" s="3">
         <v>1</v>
@@ -2121,17 +2036,11 @@
       <c r="R19" s="3">
         <v>0</v>
       </c>
-      <c r="S19" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T19" s="3">
-        <v>0</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2140,10 +2049,10 @@
         <v>11</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
@@ -2160,20 +2069,20 @@
       <c r="I20" s="3">
         <v>1</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>111</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="3">
         <v>1</v>
       </c>
       <c r="M20" s="3">
-        <v>1</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>1</v>
@@ -2187,17 +2096,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2206,10 +2109,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
@@ -2226,8 +2129,8 @@
       <c r="I21" s="3">
         <v>1</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>111</v>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -2236,10 +2139,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="O21" s="3">
         <v>1</v>
@@ -2253,17 +2156,11 @@
       <c r="R21" s="3">
         <v>0</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2272,10 +2169,10 @@
         <v>13</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E22" s="3">
         <v>2</v>
@@ -2292,20 +2189,20 @@
       <c r="I22" s="3">
         <v>1</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>111</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>1</v>
@@ -2319,17 +2216,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2338,10 +2229,10 @@
         <v>14</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
@@ -2358,20 +2249,20 @@
       <c r="I23" s="3">
         <v>1</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>111</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="3">
         <v>1</v>
       </c>
-      <c r="N23" s="3">
-        <v>1</v>
+      <c r="N23" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="O23" s="3">
         <v>1</v>
@@ -2385,17 +2276,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2404,10 +2289,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E24" s="3">
         <v>2</v>
@@ -2424,11 +2309,11 @@
       <c r="I24" s="3">
         <v>1</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>111</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="3">
         <v>1</v>
@@ -2436,8 +2321,8 @@
       <c r="M24" s="3">
         <v>1</v>
       </c>
-      <c r="N24" s="3">
-        <v>1</v>
+      <c r="N24" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>1</v>
@@ -2451,17 +2336,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2470,10 +2349,10 @@
         <v>16</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -2490,20 +2369,20 @@
       <c r="I25" s="3">
         <v>0</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>111</v>
+      <c r="J25" s="3">
+        <v>0</v>
       </c>
       <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>111</v>
+        <v>1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1</v>
       </c>
       <c r="O25" s="3">
         <v>0</v>
@@ -2520,14 +2399,8 @@
       <c r="S25" s="3">
         <v>1</v>
       </c>
-      <c r="T25" s="3">
-        <v>1</v>
-      </c>
-      <c r="U25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2536,10 +2409,10 @@
         <v>17</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -2556,20 +2429,20 @@
       <c r="I26" s="3">
         <v>0</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>111</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>111</v>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
@@ -2584,16 +2457,10 @@
         <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
-        <v>1</v>
-      </c>
-      <c r="U26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -2605,7 +2472,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -2622,8 +2489,8 @@
       <c r="I27" s="3">
         <v>0</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>111</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -2649,17 +2516,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2668,10 +2529,10 @@
         <v>19</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -2688,14 +2549,14 @@
       <c r="I28" s="3">
         <v>0</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>111</v>
+      <c r="J28" s="3">
+        <v>0</v>
       </c>
       <c r="K28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="3">
         <v>0</v>
@@ -2715,17 +2576,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-      <c r="S28" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T28" s="3">
-        <v>0</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -2733,11 +2588,11 @@
         <f t="shared" si="0"/>
         <v>1A</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>62</v>
+      <c r="C29" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -2754,17 +2609,17 @@
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>111</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2781,17 +2636,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2800,10 +2649,10 @@
         <v>1B</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2820,17 +2669,17 @@
       <c r="I30" s="3">
         <v>0</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>111</v>
+      <c r="J30" s="3">
+        <v>0</v>
       </c>
       <c r="K30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="3">
         <v>1</v>
       </c>
       <c r="M30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="3">
         <v>0</v>
@@ -2847,17 +2696,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-      <c r="S30" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T30" s="3">
-        <v>0</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -2865,11 +2708,11 @@
         <f t="shared" si="0"/>
         <v>1C</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>64</v>
+      <c r="C31" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2886,8 +2729,8 @@
       <c r="I31" s="3">
         <v>0</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>111</v>
+      <c r="J31" s="3">
+        <v>0</v>
       </c>
       <c r="K31" s="3">
         <v>0</v>
@@ -2896,10 +2739,10 @@
         <v>0</v>
       </c>
       <c r="M31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="3">
         <v>0</v>
@@ -2914,16 +2757,10 @@
         <v>0</v>
       </c>
       <c r="S31" s="3">
-        <v>0</v>
-      </c>
-      <c r="T31" s="3">
-        <v>1</v>
-      </c>
-      <c r="U31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -2932,10 +2769,10 @@
         <v>1D</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -2952,20 +2789,20 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>111</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2980,16 +2817,10 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -2998,10 +2829,10 @@
         <v>1E</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -3018,20 +2849,20 @@
       <c r="I33" s="3">
         <v>0</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>111</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="3">
         <v>1</v>
       </c>
       <c r="N33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -3046,16 +2877,10 @@
         <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
-        <v>1</v>
-      </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3064,10 +2889,10 @@
         <v>1F</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -3084,11 +2909,11 @@
       <c r="I34" s="3">
         <v>0</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>111</v>
+      <c r="J34" s="3">
+        <v>0</v>
       </c>
       <c r="K34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="3">
         <v>1</v>
@@ -3097,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="3">
         <v>0</v>
@@ -3112,18 +2937,12 @@
         <v>0</v>
       </c>
       <c r="S34" s="3">
-        <v>0</v>
-      </c>
-      <c r="T34" s="3">
-        <v>1</v>
-      </c>
-      <c r="U34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F3:U34">
+  <conditionalFormatting sqref="F3:S34">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
@@ -3136,6 +2955,7 @@
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3144,7 +2964,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3165,35 +2985,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3204,7 +3024,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3220,68 +3040,68 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3292,7 +3112,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3303,41 +3123,29 @@
         <v>12</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3">
         <v>13</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="A16" s="9"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="A17" s="9"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
@@ -3402,34 +3210,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F822AC2A-DAF4-4305-B498-33A405E08A91}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="5.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="2" customWidth="1"/>
-    <col min="5" max="11" width="5.77734375" customWidth="1"/>
+    <col min="1" max="4" width="5.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="2" customWidth="1"/>
+    <col min="6" max="12" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3439,11 +3250,14 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -3451,85 +3265,103 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -3537,9 +3369,136 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3548,212 +3507,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09ED8AC-4881-4758-87A3-A9237751EEC8}">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:A33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="e">
-        <f>Instruções!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-  </sheetData>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>